--- a/else/ReadMe.xlsx
+++ b/else/ReadMe.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="Tool" sheetId="2" r:id="rId1"/>
-    <sheet name="CodeStyle" sheetId="3" r:id="rId2"/>
-    <sheet name="MyBatis_Generator" sheetId="1" r:id="rId3"/>
+    <sheet name="Jar" sheetId="4" r:id="rId2"/>
+    <sheet name="CodeStyle" sheetId="3" r:id="rId3"/>
+    <sheet name="MyBatis_Generator" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <r>
       <t>本</t>
@@ -41,6 +42,137 @@
         <scheme val="minor"/>
       </rPr>
       <t>目相关工具版本</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>C:\Users\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Administrator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\.m2\repository\net\sf\json-lib\json-lib\2.2.3</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Administrator是用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户名</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>把else文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>夹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>里的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>json-lib-2.2.3.jar放到Maven的本地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仓库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>若Maven依</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赖提示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>json-lib-2.2.3.jar不存在</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -49,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +202,14 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -727,6 +867,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -739,7 +913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/else/ReadMe.xlsx
+++ b/else/ReadMe.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Tool" sheetId="2" r:id="rId1"/>
-    <sheet name="Jar" sheetId="4" r:id="rId2"/>
-    <sheet name="CodeStyle" sheetId="3" r:id="rId3"/>
-    <sheet name="MyBatis_Generator" sheetId="1" r:id="rId4"/>
+    <sheet name="Start" sheetId="5" r:id="rId2"/>
+    <sheet name="Jar" sheetId="4" r:id="rId3"/>
+    <sheet name="CodeStyle" sheetId="3" r:id="rId4"/>
+    <sheet name="MyBatis_Generator" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <r>
       <t>本</t>
@@ -174,6 +175,10 @@
       </rPr>
       <t>json-lib-2.2.3.jar不存在</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Alt+F5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -359,6 +364,201 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>150495</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>170378</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="171450"/>
+          <a:ext cx="15238095" cy="8571428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>199400</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>94595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="9086850"/>
+          <a:ext cx="5000000" cy="5238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>56371</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>161176</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="14573250"/>
+          <a:ext cx="6228571" cy="5990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>294638</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>56350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="30003750"/>
+          <a:ext cx="5095238" cy="6400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>150495</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>170378</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="20916900"/>
+          <a:ext cx="15238095" cy="8571428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -461,7 +661,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -867,6 +1067,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B174"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -899,7 +1119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -913,7 +1133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
